--- a/진행도.xlsx
+++ b/진행도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>기본셋팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,26 @@
   </si>
   <si>
     <t>Django</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁제와함께 기본 베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령숙지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,10 +357,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,18 +642,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H70"/>
+  <dimension ref="B5:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,10 +681,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -677,8 +698,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -690,8 +711,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -703,8 +724,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -716,8 +737,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>13</v>
       </c>
@@ -729,8 +750,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
@@ -744,8 +765,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -757,8 +778,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" t="s">
         <v>33</v>
       </c>
@@ -770,8 +791,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" t="s">
         <v>34</v>
       </c>
@@ -783,10 +804,10 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
@@ -800,8 +821,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -813,8 +834,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -826,8 +847,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -839,7 +860,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -848,7 +869,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
@@ -857,8 +878,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
@@ -872,8 +893,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="s">
         <v>26</v>
       </c>
@@ -885,8 +906,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>27</v>
       </c>
@@ -898,8 +919,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" t="s">
         <v>28</v>
       </c>
@@ -911,17 +932,17 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D26" t="s">
@@ -932,8 +953,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" t="s">
         <v>40</v>
       </c>
@@ -942,8 +963,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" t="s">
         <v>41</v>
       </c>
@@ -952,19 +973,19 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
@@ -976,25 +997,25 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1002,40 +1023,40 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1044,51 +1065,60 @@
       <c r="D48" t="s">
         <v>54</v>
       </c>
+      <c r="E48" s="1">
+        <v>43586</v>
+      </c>
       <c r="H48" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
       </c>
+      <c r="E49" s="1">
+        <v>43586</v>
+      </c>
       <c r="H49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="s">
         <v>53</v>
       </c>
+      <c r="E50" s="1">
+        <v>43586</v>
+      </c>
       <c r="H50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -1097,77 +1127,143 @@
       <c r="D56" t="s">
         <v>60</v>
       </c>
+      <c r="E56" s="1">
+        <v>43647</v>
+      </c>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
+      <c r="E57" s="1">
+        <v>43647</v>
+      </c>
+      <c r="H57" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
       </c>
+      <c r="E58" s="1">
+        <v>43647</v>
+      </c>
+      <c r="H58" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43709</v>
+      </c>
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43709</v>
+      </c>
+      <c r="H72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="C11:C14"/>
+  <mergeCells count="15">
+    <mergeCell ref="B71:B80"/>
     <mergeCell ref="B26:B37"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="B38:B47"/>
@@ -1176,6 +1272,12 @@
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/진행도.xlsx
+++ b/진행도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>기본셋팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,30 @@
   </si>
   <si>
     <t>진행해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm2 환경셋팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀파싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모던스크립트 / ES6 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reset css셋팅 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -360,8 +384,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -642,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H80"/>
+  <dimension ref="B5:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="H61" sqref="H61:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,10 +709,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -698,8 +726,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -711,8 +739,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -724,8 +752,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -737,8 +765,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" t="s">
         <v>13</v>
       </c>
@@ -750,8 +778,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
@@ -765,8 +793,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -778,8 +806,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" t="s">
         <v>33</v>
       </c>
@@ -791,8 +819,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" t="s">
         <v>34</v>
       </c>
@@ -804,10 +832,10 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
@@ -821,8 +849,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -834,8 +862,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -847,8 +875,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -860,7 +888,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -869,7 +897,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
@@ -878,8 +906,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
@@ -893,8 +921,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" t="s">
         <v>26</v>
       </c>
@@ -906,8 +934,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" t="s">
         <v>27</v>
       </c>
@@ -919,8 +947,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" t="s">
         <v>28</v>
       </c>
@@ -932,168 +960,170 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43678</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>43647</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1">
         <v>43647</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43647</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>43647</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="3" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-    </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1">
+        <v>43687</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-    </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-    </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>54</v>
-      </c>
-      <c r="E48" s="1">
-        <v>43586</v>
-      </c>
-      <c r="H48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="1">
-        <v>43586</v>
-      </c>
-      <c r="H49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" t="s">
-        <v>53</v>
       </c>
       <c r="E50" s="1">
         <v>43586</v>
@@ -1103,59 +1133,71 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43586</v>
+      </c>
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43586</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43678</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>60</v>
-      </c>
-      <c r="E56" s="1">
-        <v>43647</v>
-      </c>
-      <c r="H56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="1">
-        <v>43647</v>
-      </c>
-      <c r="H57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
       </c>
       <c r="E58" s="1">
         <v>43647</v>
@@ -1165,119 +1207,158 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43647</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43647</v>
+      </c>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="8"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43647</v>
+      </c>
+      <c r="F63" s="9">
+        <v>43678</v>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="6" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-    </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E73" s="1">
         <v>43709</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-      <c r="D72" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="7"/>
+      <c r="D74" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E74" s="1">
         <v>43709</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-    </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B56:B60"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="B15:B26"/>
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B58:B62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/진행도.xlsx
+++ b/진행도.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WEB 스터디" sheetId="1" r:id="rId1"/>
+    <sheet name="진행프로젝트" sheetId="3" r:id="rId2"/>
+    <sheet name="수학과정" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
     <t>기본셋팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +324,346 @@
   </si>
   <si>
     <t xml:space="preserve">reset css셋팅 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10 ~ 2018-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://damcafe.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오드림코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11 ~ 2018-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국저작권보호원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스크홀더 그룹[디비판다]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01 ~ 2019-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더그라운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://the-ground.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02 ~ 2019-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC/M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03 ~ 2019-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에듀메디[디비판다]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04 ~ 2019-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리조명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05 ~ 2019-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mt180.dgmolto.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰토디자인(모바일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06 ~ 2019-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://molto.kr/new/m/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자담약초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05 ~ 2019-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mt159.dgmlto.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZ전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08 ~ 2019-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹모아: 원패스아카데미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09 ~ 2019-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관리 프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업내용 및 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://neo-dream.co.kr </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11 ~ 2018-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mt175.dgmolto.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12 ~ 2019-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://riskholder.com </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메탈프린팅[디비판다]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://metal.dbpanda.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재팬코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://japankorea.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gdtrade.kr </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04 ~ 2019-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://edumedi.dbpanda.com/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wooreelighting.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리바이오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lzpcb.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오산시육아복지센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.osanchild.or.kr/html/intro.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥시육아복지센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shimom.co.kr/html/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디비판다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dbpanda.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리스케치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://htp-test.com/html/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.esvies.com/html/intro.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재단법인 행복한에코폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://happyecophone.com/html/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈서버1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈서버2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈서버3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트나미 웹팩서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파치 톰캣 연동서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드js 사이드 서버테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,16 +686,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -361,38 +729,351 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF797979"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF797979"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF797979"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF797979"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,684 +1353,1000 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61:I61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>43691</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>43691</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>43692</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>43692</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>43692</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>43687</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>43687</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>43687</v>
       </c>
-      <c r="H13" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>43690</v>
       </c>
-      <c r="H14" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>43703</v>
       </c>
-      <c r="H15" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>43703</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>43703</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <v>43703</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>43647</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>43647</v>
       </c>
-      <c r="H22" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <v>43647</v>
       </c>
-      <c r="H23" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <v>43647</v>
       </c>
-      <c r="H24" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <v>43678</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <v>43647</v>
       </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>43647</v>
       </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <v>43647</v>
       </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>43647</v>
       </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>43687</v>
       </c>
-      <c r="H39" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="6"/>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="D41" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="10">
         <v>43586</v>
       </c>
-      <c r="H50" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="8"/>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="10">
         <v>43586</v>
       </c>
-      <c r="H51" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="10">
         <v>43586</v>
       </c>
-      <c r="H52" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="10">
         <v>43678</v>
       </c>
-      <c r="H53" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="8"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="10">
         <v>43647</v>
       </c>
-      <c r="H58" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="10">
         <v>43647</v>
       </c>
-      <c r="H59" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="8"/>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="10">
         <v>43647</v>
       </c>
-      <c r="H60" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="8"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="10">
         <v>43647</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="12">
         <v>43678</v>
       </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="10">
         <v>43709</v>
       </c>
-      <c r="H73" t="s">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
-      <c r="D74" t="s">
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="10">
         <v>43709</v>
       </c>
-      <c r="H74" t="s">
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="7"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="7"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="8"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="C11:C14"/>
     <mergeCell ref="B73:B82"/>
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="C27:C32"/>
@@ -1359,9 +2356,667 @@
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="16.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69" style="3" customWidth="1"/>
+    <col min="8" max="8" width="69" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
+      <c r="C15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="47"/>
+      <c r="C29" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B23"/>
+    <mergeCell ref="B24:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G15" r:id="rId4"/>
+    <hyperlink ref="G14" r:id="rId5"/>
+    <hyperlink ref="G13" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9"/>
+    <hyperlink ref="G17" r:id="rId10"/>
+    <hyperlink ref="G18" r:id="rId11"/>
+    <hyperlink ref="G29" r:id="rId12"/>
+    <hyperlink ref="G27" r:id="rId13"/>
+    <hyperlink ref="G28" r:id="rId14"/>
+    <hyperlink ref="G26" r:id="rId15"/>
+    <hyperlink ref="G24" r:id="rId16"/>
+    <hyperlink ref="G25" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>